--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
